--- a/‏‏hospital_death_01.xlsx
+++ b/‏‏hospital_death_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d283aec89b478c5e/שולחן העבודה/Amit Documents/Ariel University/שנה ד/יישומי למידת מכונה ברפואה/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C50FDE2-DAE1-475D-8680-41B03C2DE277}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C07D1C-7833-4EE2-9F56-A9FECA5B232E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30B57AB2-B9CA-4C14-A5FE-D3FC5DEF4B46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="102">
   <si>
     <t>gender</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>heartRate_value</t>
+  </si>
+  <si>
+    <t>icd9_code</t>
   </si>
 </sst>
 </file>
@@ -712,23 +715,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06AE7-967D-40DF-9C84-04A226241E4E}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G130"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,10 +750,13 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -771,10 +776,13 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99591</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -794,10 +802,13 @@
         <v>5</v>
       </c>
       <c r="G3">
+        <v>570</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -817,10 +828,13 @@
         <v>4</v>
       </c>
       <c r="G4">
+        <v>389</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -840,10 +854,13 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81201</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -863,10 +880,13 @@
         <v>8</v>
       </c>
       <c r="G6">
+        <v>389</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -886,10 +906,13 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -909,10 +932,13 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4280</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -932,10 +958,13 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -955,10 +984,13 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81249</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -978,10 +1010,13 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24220</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1001,10 +1036,13 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43310</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1024,10 +1062,13 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1047,10 +1088,13 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99667</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1070,10 +1114,13 @@
         <v>16</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40291</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1093,10 +1140,13 @@
         <v>17</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41071</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1116,10 +1166,13 @@
         <v>18</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51881</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1139,10 +1192,13 @@
         <v>19</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1983</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1162,10 +1218,13 @@
         <v>20</v>
       </c>
       <c r="G19">
+        <v>383</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1185,10 +1244,13 @@
         <v>21</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1983</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1208,10 +1270,13 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1231,10 +1296,13 @@
         <v>22</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5715</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1254,10 +1322,13 @@
         <v>22</v>
       </c>
       <c r="G23">
+        <v>5715</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1277,10 +1348,13 @@
         <v>23</v>
       </c>
       <c r="G24">
+        <v>4280</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1300,10 +1374,13 @@
         <v>24</v>
       </c>
       <c r="G25">
+        <v>80125</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1323,10 +1400,13 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1510</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1346,10 +1426,13 @@
         <v>26</v>
       </c>
       <c r="G27">
+        <v>86404</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1369,10 +1452,13 @@
         <v>27</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34591</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1392,10 +1478,13 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56985</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1415,10 +1504,13 @@
         <v>29</v>
       </c>
       <c r="G30">
+        <v>486</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1438,10 +1530,13 @@
         <v>30</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27739</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1461,10 +1556,13 @@
         <v>31</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1484,10 +1582,13 @@
         <v>31</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1507,10 +1608,13 @@
         <v>31</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1530,10 +1634,13 @@
         <v>33</v>
       </c>
       <c r="G35">
+        <v>431</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1553,10 +1660,13 @@
         <v>34</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9693</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1576,10 +1686,13 @@
         <v>35</v>
       </c>
       <c r="G37">
+        <v>41071</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1599,10 +1712,13 @@
         <v>36</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1622,10 +1738,13 @@
         <v>36</v>
       </c>
       <c r="G39">
+        <v>389</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1645,10 +1764,13 @@
         <v>37</v>
       </c>
       <c r="G40">
+        <v>80375</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1668,10 +1790,13 @@
         <v>38</v>
       </c>
       <c r="G41">
+        <v>1628</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1691,10 +1816,13 @@
         <v>39</v>
       </c>
       <c r="G42">
+        <v>20510</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1714,10 +1842,13 @@
         <v>40</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5990</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1737,10 +1868,13 @@
         <v>41</v>
       </c>
       <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1760,10 +1894,13 @@
         <v>32</v>
       </c>
       <c r="G45">
+        <v>4280</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1783,10 +1920,13 @@
         <v>42</v>
       </c>
       <c r="G46">
+        <v>42741</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1806,10 +1946,13 @@
         <v>43</v>
       </c>
       <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4280</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1829,10 +1972,13 @@
         <v>20</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1852,10 +1998,13 @@
         <v>20</v>
       </c>
       <c r="G49">
+        <v>486</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1875,10 +2024,13 @@
         <v>44</v>
       </c>
       <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5750</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1898,10 +2050,13 @@
         <v>44</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5750</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1921,10 +2076,13 @@
         <v>45</v>
       </c>
       <c r="G52">
+        <v>570</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1944,10 +2102,13 @@
         <v>46</v>
       </c>
       <c r="G53">
+        <v>51884</v>
+      </c>
+      <c r="H53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1967,10 +2128,13 @@
         <v>46</v>
       </c>
       <c r="G54">
+        <v>51884</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1990,10 +2154,13 @@
         <v>45</v>
       </c>
       <c r="G55">
+        <v>570</v>
+      </c>
+      <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2013,10 +2180,13 @@
         <v>47</v>
       </c>
       <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80601</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2036,10 +2206,13 @@
         <v>48</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56981</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2059,10 +2232,13 @@
         <v>49</v>
       </c>
       <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2082,10 +2258,13 @@
         <v>50</v>
       </c>
       <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2105,10 +2284,13 @@
         <v>50</v>
       </c>
       <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2128,10 +2310,13 @@
         <v>52</v>
       </c>
       <c r="G61">
+        <v>5761</v>
+      </c>
+      <c r="H61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2151,10 +2336,13 @@
         <v>53</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5990</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2174,10 +2362,13 @@
         <v>54</v>
       </c>
       <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85206</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2197,10 +2388,13 @@
         <v>55</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71615</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2220,10 +2414,13 @@
         <v>56</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1961</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2243,10 +2440,13 @@
         <v>57</v>
       </c>
       <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20280</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2266,10 +2466,13 @@
         <v>57</v>
       </c>
       <c r="G67">
+        <v>20280</v>
+      </c>
+      <c r="H67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2289,10 +2492,13 @@
         <v>51</v>
       </c>
       <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42823</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2312,10 +2518,13 @@
         <v>58</v>
       </c>
       <c r="G69">
+        <v>41071</v>
+      </c>
+      <c r="H69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2335,10 +2544,13 @@
         <v>59</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53084</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2358,10 +2570,13 @@
         <v>4</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41001</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -2381,10 +2596,13 @@
         <v>60</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5750</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2404,10 +2622,13 @@
         <v>61</v>
       </c>
       <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2427,10 +2648,13 @@
         <v>62</v>
       </c>
       <c r="G74">
+        <v>51881</v>
+      </c>
+      <c r="H74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2450,10 +2674,13 @@
         <v>63</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51881</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2473,10 +2700,13 @@
         <v>63</v>
       </c>
       <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51881</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2496,10 +2726,13 @@
         <v>64</v>
       </c>
       <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99731</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2519,10 +2752,13 @@
         <v>51</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2542,10 +2778,13 @@
         <v>51</v>
       </c>
       <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2565,10 +2804,13 @@
         <v>51</v>
       </c>
       <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2588,10 +2830,13 @@
         <v>51</v>
       </c>
       <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2611,10 +2856,13 @@
         <v>51</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2634,10 +2882,13 @@
         <v>51</v>
       </c>
       <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2657,10 +2908,13 @@
         <v>51</v>
       </c>
       <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2680,10 +2934,13 @@
         <v>51</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2703,10 +2960,13 @@
         <v>51</v>
       </c>
       <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2726,10 +2986,13 @@
         <v>51</v>
       </c>
       <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2749,10 +3012,13 @@
         <v>51</v>
       </c>
       <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2772,10 +3038,13 @@
         <v>51</v>
       </c>
       <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2795,10 +3064,13 @@
         <v>51</v>
       </c>
       <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2818,10 +3090,13 @@
         <v>51</v>
       </c>
       <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2841,10 +3116,13 @@
         <v>51</v>
       </c>
       <c r="G92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3849</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -2864,10 +3142,13 @@
         <v>65</v>
       </c>
       <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80501</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -2887,10 +3168,13 @@
         <v>50</v>
       </c>
       <c r="G94">
+        <v>42821</v>
+      </c>
+      <c r="H94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2910,10 +3194,13 @@
         <v>66</v>
       </c>
       <c r="G95">
+        <v>51919</v>
+      </c>
+      <c r="H95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2933,10 +3220,13 @@
         <v>67</v>
       </c>
       <c r="G96">
+        <v>41041</v>
+      </c>
+      <c r="H96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2956,10 +3246,13 @@
         <v>15</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5722</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2979,10 +3272,13 @@
         <v>15</v>
       </c>
       <c r="G98">
+        <v>5722</v>
+      </c>
+      <c r="H98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3002,10 +3298,13 @@
         <v>68</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41071</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3025,10 +3324,13 @@
         <v>69</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1890</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3048,10 +3350,13 @@
         <v>50</v>
       </c>
       <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49121</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3071,10 +3376,13 @@
         <v>70</v>
       </c>
       <c r="G102">
+        <v>5715</v>
+      </c>
+      <c r="H102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3094,10 +3402,13 @@
         <v>71</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8830</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3117,10 +3428,13 @@
         <v>72</v>
       </c>
       <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49322</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3140,10 +3454,13 @@
         <v>15</v>
       </c>
       <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5990</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3163,10 +3480,13 @@
         <v>51</v>
       </c>
       <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5602</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3186,10 +3506,13 @@
         <v>51</v>
       </c>
       <c r="G107">
+        <v>5602</v>
+      </c>
+      <c r="H107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3209,10 +3532,13 @@
         <v>73</v>
       </c>
       <c r="G108">
+        <v>85225</v>
+      </c>
+      <c r="H108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3232,10 +3558,13 @@
         <v>74</v>
       </c>
       <c r="G109">
+        <v>2511</v>
+      </c>
+      <c r="H109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3255,10 +3584,13 @@
         <v>75</v>
       </c>
       <c r="G110">
+        <v>43411</v>
+      </c>
+      <c r="H110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3278,10 +3610,13 @@
         <v>51</v>
       </c>
       <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4588</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3301,10 +3636,13 @@
         <v>30</v>
       </c>
       <c r="G112">
+        <v>5849</v>
+      </c>
+      <c r="H112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3324,10 +3662,13 @@
         <v>76</v>
       </c>
       <c r="G113">
+        <v>1541</v>
+      </c>
+      <c r="H113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3347,10 +3688,13 @@
         <v>77</v>
       </c>
       <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42843</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3370,10 +3714,13 @@
         <v>78</v>
       </c>
       <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85221</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3393,10 +3740,13 @@
         <v>79</v>
       </c>
       <c r="G116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1510</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3416,10 +3766,13 @@
         <v>80</v>
       </c>
       <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41041</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3439,10 +3792,13 @@
         <v>9</v>
       </c>
       <c r="G118">
+        <v>43491</v>
+      </c>
+      <c r="H118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3462,10 +3818,13 @@
         <v>81</v>
       </c>
       <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51881</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3485,10 +3844,13 @@
         <v>82</v>
       </c>
       <c r="G120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1508</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3508,10 +3870,13 @@
         <v>82</v>
       </c>
       <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1508</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -3531,10 +3896,13 @@
         <v>83</v>
       </c>
       <c r="G122">
+        <v>486</v>
+      </c>
+      <c r="H122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3554,10 +3922,13 @@
         <v>84</v>
       </c>
       <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41401</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3577,10 +3948,13 @@
         <v>79</v>
       </c>
       <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1510</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3600,10 +3974,13 @@
         <v>79</v>
       </c>
       <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1510</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3623,10 +4000,13 @@
         <v>79</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1510</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3646,10 +4026,13 @@
         <v>85</v>
       </c>
       <c r="G127">
+        <v>389</v>
+      </c>
+      <c r="H127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3669,10 +4052,13 @@
         <v>86</v>
       </c>
       <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3811</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3692,10 +4078,13 @@
         <v>87</v>
       </c>
       <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42781</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3715,6 +4104,9 @@
         <v>88</v>
       </c>
       <c r="G130">
+        <v>3842</v>
+      </c>
+      <c r="H130">
         <v>0</v>
       </c>
     </row>

--- a/‏‏hospital_death_01.xlsx
+++ b/‏‏hospital_death_01.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d283aec89b478c5e/שולחן העבודה/Amit Documents/Ariel University/שנה ד/יישומי למידת מכונה ברפואה/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6C07D1C-7833-4EE2-9F56-A9FECA5B232E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE0B59-26EB-4629-AD4C-728A48D76699}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30B57AB2-B9CA-4C14-A5FE-D3FC5DEF4B46}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$G$130</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="103">
   <si>
     <t>gender</t>
   </si>
@@ -342,6 +345,9 @@
   </si>
   <si>
     <t>icd9_code</t>
+  </si>
+  <si>
+    <t>blood_pressure</t>
   </si>
 </sst>
 </file>
@@ -396,6 +402,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,22 +725,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06AE7-967D-40DF-9C84-04A226241E4E}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,10 +762,13 @@
         <v>101</v>
       </c>
       <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -779,10 +791,13 @@
         <v>99591</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -805,10 +820,13 @@
         <v>570</v>
       </c>
       <c r="H3">
+        <v>82</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -831,10 +849,13 @@
         <v>389</v>
       </c>
       <c r="H4">
+        <v>95</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -857,10 +878,13 @@
         <v>81201</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -883,10 +907,13 @@
         <v>389</v>
       </c>
       <c r="H6">
+        <v>77</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -909,10 +936,13 @@
         <v>431</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -935,10 +965,13 @@
         <v>4280</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -961,10 +994,13 @@
         <v>380</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -987,10 +1023,13 @@
         <v>81249</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1013,10 +1052,13 @@
         <v>24220</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1039,10 +1081,13 @@
         <v>43310</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1065,10 +1110,13 @@
         <v>389</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1091,10 +1139,13 @@
         <v>99667</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1117,10 +1168,13 @@
         <v>40291</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1143,10 +1197,13 @@
         <v>41071</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1169,10 +1226,13 @@
         <v>51881</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1195,10 +1255,13 @@
         <v>1983</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1221,10 +1284,13 @@
         <v>383</v>
       </c>
       <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1247,10 +1313,13 @@
         <v>1983</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1273,10 +1342,13 @@
         <v>389</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1299,10 +1371,13 @@
         <v>5715</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1325,10 +1400,13 @@
         <v>5715</v>
       </c>
       <c r="H23">
+        <v>83</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1351,10 +1429,13 @@
         <v>4280</v>
       </c>
       <c r="H24">
+        <v>126</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1377,10 +1458,13 @@
         <v>80125</v>
       </c>
       <c r="H25">
+        <v>126</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1403,10 +1487,13 @@
         <v>1510</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1428,11 +1515,14 @@
       <c r="G27">
         <v>86404</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1457,8 +1547,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1481,10 +1574,13 @@
         <v>56985</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1507,10 +1603,13 @@
         <v>486</v>
       </c>
       <c r="H30">
+        <v>107</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1533,10 +1632,13 @@
         <v>27739</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1559,10 +1661,13 @@
         <v>389</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1585,10 +1690,13 @@
         <v>389</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1611,10 +1719,13 @@
         <v>389</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1637,10 +1748,13 @@
         <v>431</v>
       </c>
       <c r="H35">
+        <v>91</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1663,10 +1777,13 @@
         <v>9693</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1689,10 +1806,13 @@
         <v>41071</v>
       </c>
       <c r="H37">
+        <v>94</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1715,10 +1835,13 @@
         <v>389</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1741,10 +1864,13 @@
         <v>389</v>
       </c>
       <c r="H39">
+        <v>96</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1767,10 +1893,13 @@
         <v>80375</v>
       </c>
       <c r="H40">
+        <v>160</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1793,10 +1922,13 @@
         <v>1628</v>
       </c>
       <c r="H41">
+        <v>85</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1819,10 +1951,13 @@
         <v>20510</v>
       </c>
       <c r="H42">
+        <v>129</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1845,10 +1980,13 @@
         <v>5990</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1871,10 +2009,13 @@
         <v>543</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1897,10 +2038,13 @@
         <v>4280</v>
       </c>
       <c r="H45">
+        <v>80</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1923,10 +2067,13 @@
         <v>42741</v>
       </c>
       <c r="H46">
+        <v>65</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1949,10 +2096,13 @@
         <v>4280</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1975,10 +2125,13 @@
         <v>486</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2001,10 +2154,13 @@
         <v>486</v>
       </c>
       <c r="H49">
+        <v>85</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2027,10 +2183,13 @@
         <v>5750</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2053,10 +2212,13 @@
         <v>5750</v>
       </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2078,11 +2240,14 @@
       <c r="G52">
         <v>570</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2105,10 +2270,13 @@
         <v>51884</v>
       </c>
       <c r="H53">
+        <v>133</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2131,10 +2299,13 @@
         <v>51884</v>
       </c>
       <c r="H54">
+        <v>133</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2157,10 +2328,13 @@
         <v>570</v>
       </c>
       <c r="H55">
+        <v>81</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2183,10 +2357,13 @@
         <v>80601</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2209,10 +2386,13 @@
         <v>56981</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2235,10 +2415,13 @@
         <v>1124</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2261,10 +2444,13 @@
         <v>486</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2287,10 +2473,13 @@
         <v>486</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2313,10 +2502,13 @@
         <v>5761</v>
       </c>
       <c r="H61">
+        <v>86</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2339,10 +2531,13 @@
         <v>5990</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2365,10 +2560,13 @@
         <v>85206</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2391,10 +2589,13 @@
         <v>71615</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2417,10 +2618,13 @@
         <v>1961</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2443,10 +2647,13 @@
         <v>20280</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2469,10 +2676,13 @@
         <v>20280</v>
       </c>
       <c r="H67">
+        <v>141</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2495,10 +2705,13 @@
         <v>42823</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2521,10 +2734,13 @@
         <v>41071</v>
       </c>
       <c r="H69">
+        <v>78</v>
+      </c>
+      <c r="I69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2547,10 +2763,13 @@
         <v>53084</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2573,10 +2792,13 @@
         <v>41001</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -2599,10 +2821,13 @@
         <v>5750</v>
       </c>
       <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2625,10 +2850,13 @@
         <v>388</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2651,10 +2879,13 @@
         <v>51881</v>
       </c>
       <c r="H74">
+        <v>120</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2677,10 +2908,13 @@
         <v>51881</v>
       </c>
       <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2703,10 +2937,13 @@
         <v>51881</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2729,10 +2966,13 @@
         <v>99731</v>
       </c>
       <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2755,10 +2995,13 @@
         <v>3849</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2781,10 +3024,13 @@
         <v>3849</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2807,10 +3053,13 @@
         <v>3849</v>
       </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2833,10 +3082,13 @@
         <v>3849</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2859,10 +3111,13 @@
         <v>3849</v>
       </c>
       <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2885,10 +3140,13 @@
         <v>3849</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2911,10 +3169,13 @@
         <v>3849</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2937,10 +3198,13 @@
         <v>3849</v>
       </c>
       <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2963,10 +3227,13 @@
         <v>3849</v>
       </c>
       <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2989,10 +3256,13 @@
         <v>3849</v>
       </c>
       <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3015,10 +3285,13 @@
         <v>3849</v>
       </c>
       <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3041,10 +3314,13 @@
         <v>3849</v>
       </c>
       <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3067,10 +3343,13 @@
         <v>3849</v>
       </c>
       <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3093,10 +3372,13 @@
         <v>3849</v>
       </c>
       <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3119,10 +3401,13 @@
         <v>3849</v>
       </c>
       <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3145,10 +3430,13 @@
         <v>80501</v>
       </c>
       <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3171,10 +3459,13 @@
         <v>42821</v>
       </c>
       <c r="H94">
+        <v>120</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3197,10 +3488,13 @@
         <v>51919</v>
       </c>
       <c r="H95">
+        <v>90</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3223,10 +3517,13 @@
         <v>41041</v>
       </c>
       <c r="H96">
+        <v>120</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3249,10 +3546,13 @@
         <v>5722</v>
       </c>
       <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3275,10 +3575,13 @@
         <v>5722</v>
       </c>
       <c r="H98">
+        <v>110</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3301,10 +3604,13 @@
         <v>41071</v>
       </c>
       <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3327,10 +3633,13 @@
         <v>1890</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3353,10 +3662,13 @@
         <v>49121</v>
       </c>
       <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3379,10 +3691,13 @@
         <v>5715</v>
       </c>
       <c r="H102">
+        <v>85</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3405,10 +3720,13 @@
         <v>8830</v>
       </c>
       <c r="H103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3431,10 +3749,13 @@
         <v>49322</v>
       </c>
       <c r="H104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3457,10 +3778,13 @@
         <v>5990</v>
       </c>
       <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3483,10 +3807,13 @@
         <v>5602</v>
       </c>
       <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3509,10 +3836,13 @@
         <v>5602</v>
       </c>
       <c r="H107">
+        <v>130</v>
+      </c>
+      <c r="I107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3535,10 +3865,13 @@
         <v>85225</v>
       </c>
       <c r="H108">
+        <v>120</v>
+      </c>
+      <c r="I108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3561,10 +3894,13 @@
         <v>2511</v>
       </c>
       <c r="H109">
+        <v>64</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3587,10 +3923,13 @@
         <v>43411</v>
       </c>
       <c r="H110">
+        <v>120</v>
+      </c>
+      <c r="I110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3613,10 +3952,13 @@
         <v>4588</v>
       </c>
       <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3639,10 +3981,13 @@
         <v>5849</v>
       </c>
       <c r="H112">
+        <v>90</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3665,10 +4010,13 @@
         <v>1541</v>
       </c>
       <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3691,10 +4039,13 @@
         <v>42843</v>
       </c>
       <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3717,10 +4068,13 @@
         <v>85221</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3743,10 +4097,13 @@
         <v>1510</v>
       </c>
       <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3769,10 +4126,13 @@
         <v>41041</v>
       </c>
       <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3795,10 +4155,13 @@
         <v>43491</v>
       </c>
       <c r="H118">
+        <v>68</v>
+      </c>
+      <c r="I118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3821,10 +4184,13 @@
         <v>51881</v>
       </c>
       <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3847,10 +4213,13 @@
         <v>1508</v>
       </c>
       <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3873,10 +4242,13 @@
         <v>1508</v>
       </c>
       <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -3899,10 +4271,13 @@
         <v>486</v>
       </c>
       <c r="H122">
+        <v>96</v>
+      </c>
+      <c r="I122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3925,10 +4300,13 @@
         <v>41401</v>
       </c>
       <c r="H123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3951,10 +4329,13 @@
         <v>1510</v>
       </c>
       <c r="H124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3977,10 +4358,13 @@
         <v>1510</v>
       </c>
       <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4003,10 +4387,13 @@
         <v>1510</v>
       </c>
       <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -4029,10 +4416,13 @@
         <v>389</v>
       </c>
       <c r="H127">
+        <v>75</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -4055,10 +4445,13 @@
         <v>3811</v>
       </c>
       <c r="H128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4081,10 +4474,13 @@
         <v>42781</v>
       </c>
       <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -4107,6 +4503,9 @@
         <v>3842</v>
       </c>
       <c r="H130">
+        <v>149</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
     </row>

--- a/‏‏hospital_death_01.xlsx
+++ b/‏‏hospital_death_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d283aec89b478c5e/שולחן העבודה/Amit Documents/Ariel University/שנה ד/יישומי למידת מכונה ברפואה/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE0B59-26EB-4629-AD4C-728A48D76699}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4726845B-7524-4644-8AD7-8D8593E3E6AD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30B57AB2-B9CA-4C14-A5FE-D3FC5DEF4B46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$G$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$F$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -727,16 +727,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06AE7-967D-40DF-9C84-04A226241E4E}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -790,8 +789,8 @@
       <c r="G2">
         <v>99591</v>
       </c>
-      <c r="H2">
-        <v>104</v>
+      <c r="H2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -819,8 +818,8 @@
       <c r="G3">
         <v>570</v>
       </c>
-      <c r="H3">
-        <v>82</v>
+      <c r="H3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -848,8 +847,8 @@
       <c r="G4">
         <v>389</v>
       </c>
-      <c r="H4">
-        <v>95</v>
+      <c r="H4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -877,8 +876,8 @@
       <c r="G5">
         <v>81201</v>
       </c>
-      <c r="H5">
-        <v>98</v>
+      <c r="H5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -906,8 +905,8 @@
       <c r="G6">
         <v>389</v>
       </c>
-      <c r="H6">
-        <v>77</v>
+      <c r="H6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -935,8 +934,8 @@
       <c r="G7">
         <v>431</v>
       </c>
-      <c r="H7">
-        <v>65</v>
+      <c r="H7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -964,8 +963,8 @@
       <c r="G8">
         <v>4280</v>
       </c>
-      <c r="H8">
-        <v>91</v>
+      <c r="H8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -993,8 +992,8 @@
       <c r="G9">
         <v>380</v>
       </c>
-      <c r="H9">
-        <v>128</v>
+      <c r="H9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1022,8 +1021,8 @@
       <c r="G10">
         <v>81249</v>
       </c>
-      <c r="H10">
-        <v>103</v>
+      <c r="H10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1051,8 +1050,8 @@
       <c r="G11">
         <v>24220</v>
       </c>
-      <c r="H11">
-        <v>98</v>
+      <c r="H11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1080,8 +1079,8 @@
       <c r="G12">
         <v>43310</v>
       </c>
-      <c r="H12">
-        <v>74</v>
+      <c r="H12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1109,8 +1108,8 @@
       <c r="G13">
         <v>389</v>
       </c>
-      <c r="H13">
-        <v>92</v>
+      <c r="H13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1138,8 +1137,8 @@
       <c r="G14">
         <v>99667</v>
       </c>
-      <c r="H14">
-        <v>108</v>
+      <c r="H14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1167,8 +1166,8 @@
       <c r="G15">
         <v>40291</v>
       </c>
-      <c r="H15">
-        <v>61</v>
+      <c r="H15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1196,8 +1195,8 @@
       <c r="G16">
         <v>41071</v>
       </c>
-      <c r="H16">
-        <v>63</v>
+      <c r="H16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1225,8 +1224,8 @@
       <c r="G17">
         <v>51881</v>
       </c>
-      <c r="H17">
-        <v>116</v>
+      <c r="H17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1254,8 +1253,8 @@
       <c r="G18">
         <v>1983</v>
       </c>
-      <c r="H18">
-        <v>76</v>
+      <c r="H18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1283,8 +1282,8 @@
       <c r="G19">
         <v>383</v>
       </c>
-      <c r="H19">
-        <v>50</v>
+      <c r="H19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1312,8 +1311,8 @@
       <c r="G20">
         <v>1983</v>
       </c>
-      <c r="H20">
-        <v>66</v>
+      <c r="H20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1341,8 +1340,8 @@
       <c r="G21">
         <v>389</v>
       </c>
-      <c r="H21">
-        <v>120</v>
+      <c r="H21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1370,8 +1369,8 @@
       <c r="G22">
         <v>5715</v>
       </c>
-      <c r="H22">
-        <v>83</v>
+      <c r="H22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1399,8 +1398,8 @@
       <c r="G23">
         <v>5715</v>
       </c>
-      <c r="H23">
-        <v>83</v>
+      <c r="H23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1428,8 +1427,8 @@
       <c r="G24">
         <v>4280</v>
       </c>
-      <c r="H24">
-        <v>126</v>
+      <c r="H24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1457,8 +1456,8 @@
       <c r="G25">
         <v>80125</v>
       </c>
-      <c r="H25">
-        <v>126</v>
+      <c r="H25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1486,8 +1485,8 @@
       <c r="G26">
         <v>1510</v>
       </c>
-      <c r="H26">
-        <v>70</v>
+      <c r="H26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1544,8 +1543,8 @@
       <c r="G28">
         <v>34591</v>
       </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1573,8 +1572,8 @@
       <c r="G29">
         <v>56985</v>
       </c>
-      <c r="H29">
-        <v>122</v>
+      <c r="H29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1602,8 +1601,8 @@
       <c r="G30">
         <v>486</v>
       </c>
-      <c r="H30">
-        <v>107</v>
+      <c r="H30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1631,8 +1630,8 @@
       <c r="G31">
         <v>27739</v>
       </c>
-      <c r="H31">
-        <v>87</v>
+      <c r="H31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1660,8 +1659,8 @@
       <c r="G32">
         <v>389</v>
       </c>
-      <c r="H32">
-        <v>135</v>
+      <c r="H32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1689,8 +1688,8 @@
       <c r="G33">
         <v>389</v>
       </c>
-      <c r="H33">
-        <v>135</v>
+      <c r="H33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1718,8 +1717,8 @@
       <c r="G34">
         <v>389</v>
       </c>
-      <c r="H34">
-        <v>135</v>
+      <c r="H34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1747,8 +1746,8 @@
       <c r="G35">
         <v>431</v>
       </c>
-      <c r="H35">
-        <v>91</v>
+      <c r="H35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1776,8 +1775,8 @@
       <c r="G36">
         <v>9693</v>
       </c>
-      <c r="H36">
-        <v>92</v>
+      <c r="H36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1805,8 +1804,8 @@
       <c r="G37">
         <v>41071</v>
       </c>
-      <c r="H37">
-        <v>94</v>
+      <c r="H37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1834,8 +1833,8 @@
       <c r="G38">
         <v>389</v>
       </c>
-      <c r="H38">
-        <v>96</v>
+      <c r="H38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1863,8 +1862,8 @@
       <c r="G39">
         <v>389</v>
       </c>
-      <c r="H39">
-        <v>96</v>
+      <c r="H39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1892,8 +1891,8 @@
       <c r="G40">
         <v>80375</v>
       </c>
-      <c r="H40">
-        <v>160</v>
+      <c r="H40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1921,8 +1920,8 @@
       <c r="G41">
         <v>1628</v>
       </c>
-      <c r="H41">
-        <v>85</v>
+      <c r="H41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1950,8 +1949,8 @@
       <c r="G42">
         <v>20510</v>
       </c>
-      <c r="H42">
-        <v>129</v>
+      <c r="H42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1979,8 +1978,8 @@
       <c r="G43">
         <v>5990</v>
       </c>
-      <c r="H43">
-        <v>69</v>
+      <c r="H43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2008,8 +2007,8 @@
       <c r="G44">
         <v>543</v>
       </c>
-      <c r="H44">
-        <v>88</v>
+      <c r="H44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2037,8 +2036,8 @@
       <c r="G45">
         <v>4280</v>
       </c>
-      <c r="H45">
-        <v>80</v>
+      <c r="H45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2066,8 +2065,8 @@
       <c r="G46">
         <v>42741</v>
       </c>
-      <c r="H46">
-        <v>65</v>
+      <c r="H46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2095,8 +2094,8 @@
       <c r="G47">
         <v>4280</v>
       </c>
-      <c r="H47">
-        <v>81</v>
+      <c r="H47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2124,8 +2123,8 @@
       <c r="G48">
         <v>486</v>
       </c>
-      <c r="H48">
-        <v>85</v>
+      <c r="H48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2153,8 +2152,8 @@
       <c r="G49">
         <v>486</v>
       </c>
-      <c r="H49">
-        <v>85</v>
+      <c r="H49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2182,8 +2181,8 @@
       <c r="G50">
         <v>5750</v>
       </c>
-      <c r="H50">
-        <v>59</v>
+      <c r="H50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2211,8 +2210,8 @@
       <c r="G51">
         <v>5750</v>
       </c>
-      <c r="H51">
-        <v>59</v>
+      <c r="H51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2269,8 +2268,8 @@
       <c r="G53">
         <v>51884</v>
       </c>
-      <c r="H53">
-        <v>133</v>
+      <c r="H53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2298,8 +2297,8 @@
       <c r="G54">
         <v>51884</v>
       </c>
-      <c r="H54">
-        <v>133</v>
+      <c r="H54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -2327,8 +2326,8 @@
       <c r="G55">
         <v>570</v>
       </c>
-      <c r="H55">
-        <v>81</v>
+      <c r="H55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2356,8 +2355,8 @@
       <c r="G56">
         <v>80601</v>
       </c>
-      <c r="H56">
-        <v>64</v>
+      <c r="H56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2385,8 +2384,8 @@
       <c r="G57">
         <v>56981</v>
       </c>
-      <c r="H57">
-        <v>125</v>
+      <c r="H57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2414,8 +2413,8 @@
       <c r="G58">
         <v>1124</v>
       </c>
-      <c r="H58">
-        <v>120</v>
+      <c r="H58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2444,7 +2443,7 @@
         <v>486</v>
       </c>
       <c r="H59">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2473,7 +2472,7 @@
         <v>486</v>
       </c>
       <c r="H60">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2502,7 +2501,7 @@
         <v>5761</v>
       </c>
       <c r="H61">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2531,7 +2530,7 @@
         <v>5990</v>
       </c>
       <c r="H62">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2560,7 +2559,7 @@
         <v>85206</v>
       </c>
       <c r="H63">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2589,7 +2588,7 @@
         <v>71615</v>
       </c>
       <c r="H64">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2618,7 +2617,7 @@
         <v>1961</v>
       </c>
       <c r="H65">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2647,7 +2646,7 @@
         <v>20280</v>
       </c>
       <c r="H66">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2676,7 +2675,7 @@
         <v>20280</v>
       </c>
       <c r="H67">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2705,7 +2704,7 @@
         <v>42823</v>
       </c>
       <c r="H68">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2734,7 +2733,7 @@
         <v>41071</v>
       </c>
       <c r="H69">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2763,7 +2762,7 @@
         <v>53084</v>
       </c>
       <c r="H70">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2792,7 +2791,7 @@
         <v>41001</v>
       </c>
       <c r="H71">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2821,7 +2820,7 @@
         <v>5750</v>
       </c>
       <c r="H72">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2850,7 +2849,7 @@
         <v>388</v>
       </c>
       <c r="H73">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2879,7 +2878,7 @@
         <v>51881</v>
       </c>
       <c r="H74">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -2908,7 +2907,7 @@
         <v>51881</v>
       </c>
       <c r="H75">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2937,7 +2936,7 @@
         <v>51881</v>
       </c>
       <c r="H76">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2966,7 +2965,7 @@
         <v>99731</v>
       </c>
       <c r="H77">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2995,7 +2994,7 @@
         <v>3849</v>
       </c>
       <c r="H78">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3024,7 +3023,7 @@
         <v>3849</v>
       </c>
       <c r="H79">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3053,7 +3052,7 @@
         <v>3849</v>
       </c>
       <c r="H80">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3082,7 +3081,7 @@
         <v>3849</v>
       </c>
       <c r="H81">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3111,7 +3110,7 @@
         <v>3849</v>
       </c>
       <c r="H82">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3140,7 +3139,7 @@
         <v>3849</v>
       </c>
       <c r="H83">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3169,7 +3168,7 @@
         <v>3849</v>
       </c>
       <c r="H84">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3198,7 +3197,7 @@
         <v>3849</v>
       </c>
       <c r="H85">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3227,7 +3226,7 @@
         <v>3849</v>
       </c>
       <c r="H86">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3256,7 +3255,7 @@
         <v>3849</v>
       </c>
       <c r="H87">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3285,7 +3284,7 @@
         <v>3849</v>
       </c>
       <c r="H88">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3314,7 +3313,7 @@
         <v>3849</v>
       </c>
       <c r="H89">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3343,7 +3342,7 @@
         <v>3849</v>
       </c>
       <c r="H90">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3372,7 +3371,7 @@
         <v>3849</v>
       </c>
       <c r="H91">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3401,7 +3400,7 @@
         <v>3849</v>
       </c>
       <c r="H92">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3430,7 +3429,7 @@
         <v>80501</v>
       </c>
       <c r="H93">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -3459,7 +3458,7 @@
         <v>42821</v>
       </c>
       <c r="H94">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3488,7 +3487,7 @@
         <v>51919</v>
       </c>
       <c r="H95">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -3517,7 +3516,7 @@
         <v>41041</v>
       </c>
       <c r="H96">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -3546,7 +3545,7 @@
         <v>5722</v>
       </c>
       <c r="H97">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3575,7 +3574,7 @@
         <v>5722</v>
       </c>
       <c r="H98">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3604,7 +3603,7 @@
         <v>41071</v>
       </c>
       <c r="H99">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3633,7 +3632,7 @@
         <v>1890</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3662,7 +3661,7 @@
         <v>49121</v>
       </c>
       <c r="H101">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3691,7 +3690,7 @@
         <v>5715</v>
       </c>
       <c r="H102">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -3720,7 +3719,7 @@
         <v>8830</v>
       </c>
       <c r="H103">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3749,7 +3748,7 @@
         <v>49322</v>
       </c>
       <c r="H104">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -3778,7 +3777,7 @@
         <v>5990</v>
       </c>
       <c r="H105">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -3807,7 +3806,7 @@
         <v>5602</v>
       </c>
       <c r="H106">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -3836,7 +3835,7 @@
         <v>5602</v>
       </c>
       <c r="H107">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3865,7 +3864,7 @@
         <v>85225</v>
       </c>
       <c r="H108">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -3894,7 +3893,7 @@
         <v>2511</v>
       </c>
       <c r="H109">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -3923,7 +3922,7 @@
         <v>43411</v>
       </c>
       <c r="H110">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -3952,7 +3951,7 @@
         <v>4588</v>
       </c>
       <c r="H111">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -3981,7 +3980,7 @@
         <v>5849</v>
       </c>
       <c r="H112">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4010,7 +4009,7 @@
         <v>1541</v>
       </c>
       <c r="H113">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4039,7 +4038,7 @@
         <v>42843</v>
       </c>
       <c r="H114">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4068,7 +4067,7 @@
         <v>85221</v>
       </c>
       <c r="H115">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4097,7 +4096,7 @@
         <v>1510</v>
       </c>
       <c r="H116">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4126,7 +4125,7 @@
         <v>41041</v>
       </c>
       <c r="H117">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4155,7 +4154,7 @@
         <v>43491</v>
       </c>
       <c r="H118">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -4184,7 +4183,7 @@
         <v>51881</v>
       </c>
       <c r="H119">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4213,7 +4212,7 @@
         <v>1508</v>
       </c>
       <c r="H120">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4242,7 +4241,7 @@
         <v>1508</v>
       </c>
       <c r="H121">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4271,7 +4270,7 @@
         <v>486</v>
       </c>
       <c r="H122">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -4300,7 +4299,7 @@
         <v>41401</v>
       </c>
       <c r="H123">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -4329,7 +4328,7 @@
         <v>1510</v>
       </c>
       <c r="H124">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -4358,7 +4357,7 @@
         <v>1510</v>
       </c>
       <c r="H125">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -4387,7 +4386,7 @@
         <v>1510</v>
       </c>
       <c r="H126">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -4416,7 +4415,7 @@
         <v>389</v>
       </c>
       <c r="H127">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -4445,7 +4444,7 @@
         <v>3811</v>
       </c>
       <c r="H128">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -4474,7 +4473,7 @@
         <v>42781</v>
       </c>
       <c r="H129">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -4503,7 +4502,7 @@
         <v>3842</v>
       </c>
       <c r="H130">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I130">
         <v>0</v>

--- a/‏‏hospital_death_01.xlsx
+++ b/‏‏hospital_death_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d283aec89b478c5e/שולחן העבודה/Amit Documents/Ariel University/שנה ד/יישומי למידת מכונה ברפואה/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4726845B-7524-4644-8AD7-8D8593E3E6AD}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304016CB-20A0-4B7F-8F43-2E64394888C7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30B57AB2-B9CA-4C14-A5FE-D3FC5DEF4B46}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="102">
   <si>
     <t>gender</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>icd9_code</t>
-  </si>
-  <si>
-    <t>blood_pressure</t>
   </si>
 </sst>
 </file>
@@ -725,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC06AE7-967D-40DF-9C84-04A226241E4E}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -738,7 +735,7 @@
     <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,13 +758,10 @@
         <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -789,14 +783,11 @@
       <c r="G2">
         <v>99591</v>
       </c>
-      <c r="H2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -818,14 +809,11 @@
       <c r="G3">
         <v>570</v>
       </c>
-      <c r="H3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -847,14 +835,11 @@
       <c r="G4">
         <v>389</v>
       </c>
-      <c r="H4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -876,14 +861,11 @@
       <c r="G5">
         <v>81201</v>
       </c>
-      <c r="H5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -905,14 +887,11 @@
       <c r="G6">
         <v>389</v>
       </c>
-      <c r="H6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -934,14 +913,11 @@
       <c r="G7">
         <v>431</v>
       </c>
-      <c r="H7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -963,14 +939,11 @@
       <c r="G8">
         <v>4280</v>
       </c>
-      <c r="H8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -992,14 +965,11 @@
       <c r="G9">
         <v>380</v>
       </c>
-      <c r="H9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1021,14 +991,11 @@
       <c r="G10">
         <v>81249</v>
       </c>
-      <c r="H10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1050,14 +1017,11 @@
       <c r="G11">
         <v>24220</v>
       </c>
-      <c r="H11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1079,14 +1043,11 @@
       <c r="G12">
         <v>43310</v>
       </c>
-      <c r="H12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1108,14 +1069,11 @@
       <c r="G13">
         <v>389</v>
       </c>
-      <c r="H13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1137,14 +1095,11 @@
       <c r="G14">
         <v>99667</v>
       </c>
-      <c r="H14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1166,14 +1121,11 @@
       <c r="G15">
         <v>40291</v>
       </c>
-      <c r="H15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1195,14 +1147,11 @@
       <c r="G16">
         <v>41071</v>
       </c>
-      <c r="H16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1224,14 +1173,11 @@
       <c r="G17">
         <v>51881</v>
       </c>
-      <c r="H17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1253,14 +1199,11 @@
       <c r="G18">
         <v>1983</v>
       </c>
-      <c r="H18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1282,14 +1225,11 @@
       <c r="G19">
         <v>383</v>
       </c>
-      <c r="H19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1311,14 +1251,11 @@
       <c r="G20">
         <v>1983</v>
       </c>
-      <c r="H20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1340,14 +1277,11 @@
       <c r="G21">
         <v>389</v>
       </c>
-      <c r="H21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1369,14 +1303,11 @@
       <c r="G22">
         <v>5715</v>
       </c>
-      <c r="H22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1398,14 +1329,11 @@
       <c r="G23">
         <v>5715</v>
       </c>
-      <c r="H23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1427,14 +1355,11 @@
       <c r="G24">
         <v>4280</v>
       </c>
-      <c r="H24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1456,14 +1381,11 @@
       <c r="G25">
         <v>80125</v>
       </c>
-      <c r="H25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1485,14 +1407,11 @@
       <c r="G26">
         <v>1510</v>
       </c>
-      <c r="H26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1514,14 +1433,11 @@
       <c r="G27">
         <v>86404</v>
       </c>
-      <c r="H27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1543,14 +1459,11 @@
       <c r="G28">
         <v>34591</v>
       </c>
-      <c r="H28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1572,14 +1485,11 @@
       <c r="G29">
         <v>56985</v>
       </c>
-      <c r="H29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1601,14 +1511,11 @@
       <c r="G30">
         <v>486</v>
       </c>
-      <c r="H30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1630,14 +1537,11 @@
       <c r="G31">
         <v>27739</v>
       </c>
-      <c r="H31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1659,14 +1563,11 @@
       <c r="G32">
         <v>389</v>
       </c>
-      <c r="H32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1688,14 +1589,11 @@
       <c r="G33">
         <v>389</v>
       </c>
-      <c r="H33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1717,14 +1615,11 @@
       <c r="G34">
         <v>389</v>
       </c>
-      <c r="H34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1746,14 +1641,11 @@
       <c r="G35">
         <v>431</v>
       </c>
-      <c r="H35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I35">
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1775,14 +1667,11 @@
       <c r="G36">
         <v>9693</v>
       </c>
-      <c r="H36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1804,14 +1693,11 @@
       <c r="G37">
         <v>41071</v>
       </c>
-      <c r="H37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I37">
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1833,14 +1719,11 @@
       <c r="G38">
         <v>389</v>
       </c>
-      <c r="H38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1862,14 +1745,11 @@
       <c r="G39">
         <v>389</v>
       </c>
-      <c r="H39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I39">
+      <c r="H39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1891,14 +1771,11 @@
       <c r="G40">
         <v>80375</v>
       </c>
-      <c r="H40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I40">
+      <c r="H40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1920,14 +1797,11 @@
       <c r="G41">
         <v>1628</v>
       </c>
-      <c r="H41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I41">
+      <c r="H41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1949,14 +1823,11 @@
       <c r="G42">
         <v>20510</v>
       </c>
-      <c r="H42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I42">
+      <c r="H42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1978,14 +1849,11 @@
       <c r="G43">
         <v>5990</v>
       </c>
-      <c r="H43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2007,14 +1875,11 @@
       <c r="G44">
         <v>543</v>
       </c>
-      <c r="H44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2036,14 +1901,11 @@
       <c r="G45">
         <v>4280</v>
       </c>
-      <c r="H45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I45">
+      <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2065,14 +1927,11 @@
       <c r="G46">
         <v>42741</v>
       </c>
-      <c r="H46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I46">
+      <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2094,14 +1953,11 @@
       <c r="G47">
         <v>4280</v>
       </c>
-      <c r="H47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2123,14 +1979,11 @@
       <c r="G48">
         <v>486</v>
       </c>
-      <c r="H48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2152,14 +2005,11 @@
       <c r="G49">
         <v>486</v>
       </c>
-      <c r="H49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I49">
+      <c r="H49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2181,14 +2031,11 @@
       <c r="G50">
         <v>5750</v>
       </c>
-      <c r="H50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2210,14 +2057,11 @@
       <c r="G51">
         <v>5750</v>
       </c>
-      <c r="H51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2239,14 +2083,11 @@
       <c r="G52">
         <v>570</v>
       </c>
-      <c r="H52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I52">
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2268,14 +2109,11 @@
       <c r="G53">
         <v>51884</v>
       </c>
-      <c r="H53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I53">
+      <c r="H53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2297,14 +2135,11 @@
       <c r="G54">
         <v>51884</v>
       </c>
-      <c r="H54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I54">
+      <c r="H54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2326,14 +2161,11 @@
       <c r="G55">
         <v>570</v>
       </c>
-      <c r="H55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I55">
+      <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2355,14 +2187,11 @@
       <c r="G56">
         <v>80601</v>
       </c>
-      <c r="H56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2384,14 +2213,11 @@
       <c r="G57">
         <v>56981</v>
       </c>
-      <c r="H57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2413,14 +2239,11 @@
       <c r="G58">
         <v>1124</v>
       </c>
-      <c r="H58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2443,13 +2266,10 @@
         <v>486</v>
       </c>
       <c r="H59">
-        <v>163</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2472,13 +2292,10 @@
         <v>486</v>
       </c>
       <c r="H60">
-        <v>163</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2501,13 +2318,10 @@
         <v>5761</v>
       </c>
       <c r="H61">
-        <v>149</v>
-      </c>
-      <c r="I61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2530,13 +2344,10 @@
         <v>5990</v>
       </c>
       <c r="H62">
-        <v>90</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2559,13 +2370,10 @@
         <v>85206</v>
       </c>
       <c r="H63">
-        <v>134</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2588,13 +2396,10 @@
         <v>71615</v>
       </c>
       <c r="H64">
-        <v>110</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2617,13 +2422,10 @@
         <v>1961</v>
       </c>
       <c r="H65">
-        <v>160</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2646,13 +2448,10 @@
         <v>20280</v>
       </c>
       <c r="H66">
-        <v>89</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2675,13 +2474,10 @@
         <v>20280</v>
       </c>
       <c r="H67">
-        <v>89</v>
-      </c>
-      <c r="I67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2704,13 +2500,10 @@
         <v>42823</v>
       </c>
       <c r="H68">
-        <v>160</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2733,13 +2526,10 @@
         <v>41071</v>
       </c>
       <c r="H69">
-        <v>99</v>
-      </c>
-      <c r="I69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2762,13 +2552,10 @@
         <v>53084</v>
       </c>
       <c r="H70">
-        <v>90</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2791,13 +2578,10 @@
         <v>41001</v>
       </c>
       <c r="H71">
-        <v>160</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -2820,13 +2604,10 @@
         <v>5750</v>
       </c>
       <c r="H72">
-        <v>103</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2849,13 +2630,10 @@
         <v>388</v>
       </c>
       <c r="H73">
-        <v>105</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2878,13 +2656,10 @@
         <v>51881</v>
       </c>
       <c r="H74">
-        <v>130</v>
-      </c>
-      <c r="I74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2907,13 +2682,10 @@
         <v>51881</v>
       </c>
       <c r="H75">
-        <v>112</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2936,13 +2708,10 @@
         <v>51881</v>
       </c>
       <c r="H76">
-        <v>112</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2965,13 +2734,10 @@
         <v>99731</v>
       </c>
       <c r="H77">
-        <v>160</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2994,13 +2760,10 @@
         <v>3849</v>
       </c>
       <c r="H78">
-        <v>137</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3023,13 +2786,10 @@
         <v>3849</v>
       </c>
       <c r="H79">
-        <v>137</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3052,13 +2812,10 @@
         <v>3849</v>
       </c>
       <c r="H80">
-        <v>137</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3081,13 +2838,10 @@
         <v>3849</v>
       </c>
       <c r="H81">
-        <v>137</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3110,13 +2864,10 @@
         <v>3849</v>
       </c>
       <c r="H82">
-        <v>137</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3139,13 +2890,10 @@
         <v>3849</v>
       </c>
       <c r="H83">
-        <v>137</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3168,13 +2916,10 @@
         <v>3849</v>
       </c>
       <c r="H84">
-        <v>137</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3197,13 +2942,10 @@
         <v>3849</v>
       </c>
       <c r="H85">
-        <v>137</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3226,13 +2968,10 @@
         <v>3849</v>
       </c>
       <c r="H86">
-        <v>137</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3255,13 +2994,10 @@
         <v>3849</v>
       </c>
       <c r="H87">
-        <v>137</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3284,13 +3020,10 @@
         <v>3849</v>
       </c>
       <c r="H88">
-        <v>137</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3313,13 +3046,10 @@
         <v>3849</v>
       </c>
       <c r="H89">
-        <v>137</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3342,13 +3072,10 @@
         <v>3849</v>
       </c>
       <c r="H90">
-        <v>137</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3371,13 +3098,10 @@
         <v>3849</v>
       </c>
       <c r="H91">
-        <v>137</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3400,13 +3124,10 @@
         <v>3849</v>
       </c>
       <c r="H92">
-        <v>137</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3429,13 +3150,10 @@
         <v>80501</v>
       </c>
       <c r="H93">
-        <v>152</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3458,13 +3176,10 @@
         <v>42821</v>
       </c>
       <c r="H94">
-        <v>160</v>
-      </c>
-      <c r="I94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3487,13 +3202,10 @@
         <v>51919</v>
       </c>
       <c r="H95">
-        <v>146</v>
-      </c>
-      <c r="I95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3516,13 +3228,10 @@
         <v>41041</v>
       </c>
       <c r="H96">
-        <v>90</v>
-      </c>
-      <c r="I96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3545,13 +3254,10 @@
         <v>5722</v>
       </c>
       <c r="H97">
-        <v>121</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3574,13 +3280,10 @@
         <v>5722</v>
       </c>
       <c r="H98">
-        <v>121</v>
-      </c>
-      <c r="I98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3603,13 +3306,10 @@
         <v>41071</v>
       </c>
       <c r="H99">
-        <v>160</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3632,13 +3332,10 @@
         <v>1890</v>
       </c>
       <c r="H100">
-        <v>160</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3661,13 +3358,10 @@
         <v>49121</v>
       </c>
       <c r="H101">
-        <v>160</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3690,13 +3384,10 @@
         <v>5715</v>
       </c>
       <c r="H102">
-        <v>160</v>
-      </c>
-      <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3719,13 +3410,10 @@
         <v>8830</v>
       </c>
       <c r="H103">
-        <v>154</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3748,13 +3436,10 @@
         <v>49322</v>
       </c>
       <c r="H104">
-        <v>160</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3777,13 +3462,10 @@
         <v>5990</v>
       </c>
       <c r="H105">
-        <v>160</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3806,13 +3488,10 @@
         <v>5602</v>
       </c>
       <c r="H106">
-        <v>160</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3835,13 +3514,10 @@
         <v>5602</v>
       </c>
       <c r="H107">
-        <v>160</v>
-      </c>
-      <c r="I107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3864,13 +3540,10 @@
         <v>85225</v>
       </c>
       <c r="H108">
-        <v>140</v>
-      </c>
-      <c r="I108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3893,13 +3566,10 @@
         <v>2511</v>
       </c>
       <c r="H109">
-        <v>177</v>
-      </c>
-      <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3922,13 +3592,10 @@
         <v>43411</v>
       </c>
       <c r="H110">
-        <v>160</v>
-      </c>
-      <c r="I110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3951,13 +3618,10 @@
         <v>4588</v>
       </c>
       <c r="H111">
-        <v>114</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3980,13 +3644,10 @@
         <v>5849</v>
       </c>
       <c r="H112">
-        <v>106</v>
-      </c>
-      <c r="I112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4009,13 +3670,10 @@
         <v>1541</v>
       </c>
       <c r="H113">
-        <v>143</v>
-      </c>
-      <c r="I113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4038,13 +3696,10 @@
         <v>42843</v>
       </c>
       <c r="H114">
-        <v>160</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4067,13 +3722,10 @@
         <v>85221</v>
       </c>
       <c r="H115">
-        <v>123</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -4096,13 +3748,10 @@
         <v>1510</v>
       </c>
       <c r="H116">
-        <v>155</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -4125,13 +3774,10 @@
         <v>41041</v>
       </c>
       <c r="H117">
-        <v>120</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -4154,13 +3800,10 @@
         <v>43491</v>
       </c>
       <c r="H118">
-        <v>104</v>
-      </c>
-      <c r="I118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -4183,13 +3826,10 @@
         <v>51881</v>
       </c>
       <c r="H119">
-        <v>112</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4212,13 +3852,10 @@
         <v>1508</v>
       </c>
       <c r="H120">
-        <v>160</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4241,13 +3878,10 @@
         <v>1508</v>
       </c>
       <c r="H121">
-        <v>160</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -4270,13 +3904,10 @@
         <v>486</v>
       </c>
       <c r="H122">
-        <v>133</v>
-      </c>
-      <c r="I122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4299,13 +3930,10 @@
         <v>41401</v>
       </c>
       <c r="H123">
-        <v>95</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4328,13 +3956,10 @@
         <v>1510</v>
       </c>
       <c r="H124">
-        <v>110</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4357,13 +3982,10 @@
         <v>1510</v>
       </c>
       <c r="H125">
-        <v>110</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4386,13 +4008,10 @@
         <v>1510</v>
       </c>
       <c r="H126">
-        <v>110</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -4415,13 +4034,10 @@
         <v>389</v>
       </c>
       <c r="H127">
-        <v>102</v>
-      </c>
-      <c r="I127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -4444,13 +4060,10 @@
         <v>3811</v>
       </c>
       <c r="H128">
-        <v>93</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4473,13 +4086,10 @@
         <v>42781</v>
       </c>
       <c r="H129">
-        <v>102</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -4502,9 +4112,6 @@
         <v>3842</v>
       </c>
       <c r="H130">
-        <v>115</v>
-      </c>
-      <c r="I130">
         <v>0</v>
       </c>
     </row>

--- a/‏‏hospital_death_01.xlsx
+++ b/‏‏hospital_death_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d283aec89b478c5e/שולחן העבודה/Amit Documents/Ariel University/שנה ד/יישומי למידת מכונה ברפואה/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304016CB-20A0-4B7F-8F43-2E64394888C7}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{05F072D2-F753-48CD-A816-6BC07EA8C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03E1043-EAE5-47E1-AAB3-875AE524776D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{30B57AB2-B9CA-4C14-A5FE-D3FC5DEF4B46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$F$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$E$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -338,13 +338,13 @@
     <t>1878-05-14 00:00:00</t>
   </si>
   <si>
-    <t>glucose_valuenum</t>
-  </si>
-  <si>
     <t>heartRate_value</t>
   </si>
   <si>
     <t>icd9_code</t>
+  </si>
+  <si>
+    <t>GCS</t>
   </si>
 </sst>
 </file>
@@ -725,14 +725,13 @@
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,10 +748,10 @@
         <v>99</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>101</v>
@@ -772,16 +771,16 @@
         <v>96722.881250000006</v>
       </c>
       <c r="D2">
-        <v>126</v>
-      </c>
-      <c r="E2">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>99591</v>
       </c>
       <c r="G2">
-        <v>99591</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -798,16 +797,16 @@
         <v>82772.938888888893</v>
       </c>
       <c r="D3">
-        <v>79</v>
-      </c>
-      <c r="E3">
         <v>82</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>570</v>
+      </c>
       <c r="G3">
-        <v>570</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -824,16 +823,16 @@
         <v>82458.983333333337</v>
       </c>
       <c r="D4">
-        <v>165</v>
-      </c>
-      <c r="E4">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>389</v>
       </c>
       <c r="G4">
-        <v>389</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -850,16 +849,16 @@
         <v>91093.721527777772</v>
       </c>
       <c r="D5">
-        <v>224</v>
-      </c>
-      <c r="E5">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
+      <c r="F5">
+        <v>81201</v>
+      </c>
       <c r="G5">
-        <v>81201</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -876,16 +875,16 @@
         <v>96194.86319444445</v>
       </c>
       <c r="D6">
-        <v>155</v>
-      </c>
-      <c r="E6">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6">
+        <v>389</v>
+      </c>
       <c r="G6">
-        <v>389</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -902,16 +901,16 @@
         <v>107885.31875000001</v>
       </c>
       <c r="D7">
-        <v>123</v>
-      </c>
-      <c r="E7">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
+      <c r="F7">
+        <v>431</v>
+      </c>
       <c r="G7">
-        <v>431</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -928,16 +927,16 @@
         <v>106116.30208333333</v>
       </c>
       <c r="D8">
-        <v>307</v>
-      </c>
-      <c r="E8">
         <v>91</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
+      <c r="F8">
+        <v>4280</v>
+      </c>
       <c r="G8">
-        <v>4280</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -954,16 +953,16 @@
         <v>87559.45694444445</v>
       </c>
       <c r="D9">
-        <v>110</v>
-      </c>
-      <c r="E9">
         <v>128</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
+      <c r="F9">
+        <v>380</v>
+      </c>
       <c r="G9">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -980,16 +979,16 @@
         <v>87021.827777777784</v>
       </c>
       <c r="D10">
-        <v>91</v>
-      </c>
-      <c r="E10">
         <v>103</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10">
+        <v>81249</v>
+      </c>
       <c r="G10">
-        <v>81249</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1006,16 +1005,16 @@
         <v>85077.115277777775</v>
       </c>
       <c r="D11">
-        <v>157</v>
-      </c>
-      <c r="E11">
         <v>98</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
+      <c r="F11">
+        <v>24220</v>
+      </c>
       <c r="G11">
-        <v>24220</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1032,16 +1031,16 @@
         <v>83704.670833333337</v>
       </c>
       <c r="D12">
-        <v>145</v>
-      </c>
-      <c r="E12">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
+      <c r="F12">
+        <v>43310</v>
+      </c>
       <c r="G12">
-        <v>43310</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1058,16 +1057,16 @@
         <v>104179.70555555556</v>
       </c>
       <c r="D13">
-        <v>347</v>
-      </c>
-      <c r="E13">
         <v>92</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>389</v>
       </c>
       <c r="G13">
-        <v>389</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1084,16 +1083,16 @@
         <v>89160.745138888888</v>
       </c>
       <c r="D14">
-        <v>132</v>
-      </c>
-      <c r="E14">
         <v>108</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>15</v>
       </c>
+      <c r="F14">
+        <v>99667</v>
+      </c>
       <c r="G14">
-        <v>99667</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1110,16 +1109,16 @@
         <v>90270.48819444445</v>
       </c>
       <c r="D15">
-        <v>93</v>
-      </c>
-      <c r="E15">
         <v>61</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
+      <c r="F15">
+        <v>40291</v>
+      </c>
       <c r="G15">
-        <v>40291</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1136,16 +1135,16 @@
         <v>90253.526388888888</v>
       </c>
       <c r="D16">
-        <v>102</v>
-      </c>
-      <c r="E16">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
+      <c r="F16">
+        <v>41071</v>
+      </c>
       <c r="G16">
-        <v>41071</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1162,16 +1161,16 @@
         <v>104200.01597222222</v>
       </c>
       <c r="D17">
-        <v>143</v>
-      </c>
-      <c r="E17">
         <v>116</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
+      <c r="F17">
+        <v>51881</v>
+      </c>
       <c r="G17">
-        <v>51881</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1188,16 +1187,16 @@
         <v>92318.683333333334</v>
       </c>
       <c r="D18">
-        <v>95</v>
-      </c>
-      <c r="E18">
         <v>76</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
+      <c r="F18">
+        <v>1983</v>
+      </c>
       <c r="G18">
-        <v>1983</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1214,16 +1213,16 @@
         <v>83970.021527777775</v>
       </c>
       <c r="D19">
-        <v>210</v>
-      </c>
-      <c r="E19">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>20</v>
       </c>
+      <c r="F19">
+        <v>383</v>
+      </c>
       <c r="G19">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1240,16 +1239,16 @@
         <v>107590.98819444445</v>
       </c>
       <c r="D20">
-        <v>150</v>
-      </c>
-      <c r="E20">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>21</v>
       </c>
+      <c r="F20">
+        <v>1983</v>
+      </c>
       <c r="G20">
-        <v>1983</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1266,16 +1265,16 @@
         <v>83764.008333333331</v>
       </c>
       <c r="D21">
-        <v>180</v>
-      </c>
-      <c r="E21">
         <v>120</v>
       </c>
-      <c r="F21" t="s">
-        <v>4</v>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>389</v>
       </c>
       <c r="G21">
-        <v>389</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1292,16 +1291,16 @@
         <v>91531.902777777781</v>
       </c>
       <c r="D22">
-        <v>190</v>
-      </c>
-      <c r="E22">
         <v>83</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>22</v>
       </c>
+      <c r="F22">
+        <v>5715</v>
+      </c>
       <c r="G22">
-        <v>5715</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1318,16 +1317,16 @@
         <v>91546.731249999997</v>
       </c>
       <c r="D23">
-        <v>190</v>
-      </c>
-      <c r="E23">
         <v>83</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
+      <c r="F23">
+        <v>5715</v>
+      </c>
       <c r="G23">
-        <v>5715</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1344,16 +1343,16 @@
         <v>75622.481249999997</v>
       </c>
       <c r="D24">
-        <v>153</v>
-      </c>
-      <c r="E24">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
+      <c r="F24">
+        <v>4280</v>
+      </c>
       <c r="G24">
-        <v>4280</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1370,16 +1369,16 @@
         <v>82989.610416666663</v>
       </c>
       <c r="D25">
-        <v>250</v>
-      </c>
-      <c r="E25">
         <v>126</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>24</v>
       </c>
+      <c r="F25">
+        <v>80125</v>
+      </c>
       <c r="G25">
-        <v>80125</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1396,16 +1395,16 @@
         <v>105808.30208333333</v>
       </c>
       <c r="D26">
-        <v>92</v>
-      </c>
-      <c r="E26">
         <v>70</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
+      <c r="F26">
+        <v>1510</v>
+      </c>
       <c r="G26">
-        <v>1510</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1421,17 +1420,17 @@
       <c r="C27" s="1">
         <v>84286.065277777772</v>
       </c>
-      <c r="D27">
-        <v>102</v>
-      </c>
-      <c r="E27" t="e">
+      <c r="D27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="G27">
+      <c r="F27">
         <v>86404</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1448,16 +1447,16 @@
         <v>105230.46875</v>
       </c>
       <c r="D28">
-        <v>106</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>27</v>
       </c>
+      <c r="F28">
+        <v>34591</v>
+      </c>
       <c r="G28">
-        <v>34591</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1474,16 +1473,16 @@
         <v>97563.923611111109</v>
       </c>
       <c r="D29">
-        <v>135</v>
-      </c>
-      <c r="E29">
         <v>122</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>28</v>
       </c>
+      <c r="F29">
+        <v>56985</v>
+      </c>
       <c r="G29">
-        <v>56985</v>
+        <v>15</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1500,16 +1499,16 @@
         <v>75686.886111111118</v>
       </c>
       <c r="D30">
-        <v>123</v>
-      </c>
-      <c r="E30">
         <v>107</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>29</v>
       </c>
+      <c r="F30">
+        <v>486</v>
+      </c>
       <c r="G30">
-        <v>486</v>
+        <v>15</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1526,16 +1525,16 @@
         <v>106977.19027777777</v>
       </c>
       <c r="D31">
-        <v>103</v>
-      </c>
-      <c r="E31">
         <v>87</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>30</v>
       </c>
+      <c r="F31">
+        <v>27739</v>
+      </c>
       <c r="G31">
-        <v>27739</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1552,16 +1551,16 @@
         <v>75610.499305555553</v>
       </c>
       <c r="D32">
-        <v>195</v>
-      </c>
-      <c r="E32">
         <v>135</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
+      <c r="F32">
+        <v>389</v>
+      </c>
       <c r="G32">
-        <v>389</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1578,16 +1577,16 @@
         <v>75635.166666666672</v>
       </c>
       <c r="D33">
-        <v>195</v>
-      </c>
-      <c r="E33">
         <v>135</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
         <v>31</v>
       </c>
+      <c r="F33">
+        <v>389</v>
+      </c>
       <c r="G33">
-        <v>389</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1604,16 +1603,16 @@
         <v>75738.75</v>
       </c>
       <c r="D34">
-        <v>195</v>
-      </c>
-      <c r="E34">
         <v>135</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
+      <c r="F34">
+        <v>389</v>
+      </c>
       <c r="G34">
-        <v>389</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1630,16 +1629,16 @@
         <v>84955.78333333334</v>
       </c>
       <c r="D35">
-        <v>153</v>
-      </c>
-      <c r="E35">
         <v>91</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>33</v>
       </c>
+      <c r="F35">
+        <v>431</v>
+      </c>
       <c r="G35">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1656,16 +1655,16 @@
         <v>81827.601388888885</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
         <v>92</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>34</v>
       </c>
+      <c r="F36">
+        <v>9693</v>
+      </c>
       <c r="G36">
-        <v>9693</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1682,16 +1681,16 @@
         <v>88050.357638888891</v>
       </c>
       <c r="D37">
-        <v>159</v>
-      </c>
-      <c r="E37">
         <v>94</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>35</v>
       </c>
+      <c r="F37">
+        <v>41071</v>
+      </c>
       <c r="G37">
-        <v>41071</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1708,16 +1707,16 @@
         <v>102329.78750000001</v>
       </c>
       <c r="D38">
-        <v>94</v>
-      </c>
-      <c r="E38">
         <v>96</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>36</v>
       </c>
+      <c r="F38">
+        <v>389</v>
+      </c>
       <c r="G38">
-        <v>389</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1734,16 +1733,16 @@
         <v>102344.94097222222</v>
       </c>
       <c r="D39">
-        <v>94</v>
-      </c>
-      <c r="E39">
         <v>96</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>36</v>
       </c>
+      <c r="F39">
+        <v>389</v>
+      </c>
       <c r="G39">
-        <v>389</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1760,16 +1759,16 @@
         <v>98953.975000000006</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
         <v>160</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
         <v>37</v>
       </c>
+      <c r="F40">
+        <v>80375</v>
+      </c>
       <c r="G40">
-        <v>80375</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1786,16 +1785,16 @@
         <v>83358.734027777784</v>
       </c>
       <c r="D41">
-        <v>106</v>
-      </c>
-      <c r="E41">
         <v>85</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
         <v>38</v>
       </c>
+      <c r="F41">
+        <v>1628</v>
+      </c>
       <c r="G41">
-        <v>1628</v>
+        <v>15</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1812,16 +1811,16 @@
         <v>75025.762499999997</v>
       </c>
       <c r="D42">
-        <v>166</v>
-      </c>
-      <c r="E42">
         <v>129</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
         <v>39</v>
       </c>
+      <c r="F42">
+        <v>20510</v>
+      </c>
       <c r="G42">
-        <v>20510</v>
+        <v>15</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1838,16 +1837,16 @@
         <v>80591.735416666663</v>
       </c>
       <c r="D43">
-        <v>137</v>
-      </c>
-      <c r="E43">
         <v>69</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>40</v>
       </c>
+      <c r="F43">
+        <v>5990</v>
+      </c>
       <c r="G43">
-        <v>5990</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -1864,16 +1863,16 @@
         <v>95587.931944444441</v>
       </c>
       <c r="D44">
-        <v>190</v>
-      </c>
-      <c r="E44">
         <v>88</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>41</v>
       </c>
+      <c r="F44">
+        <v>543</v>
+      </c>
       <c r="G44">
-        <v>543</v>
+        <v>15</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -1890,16 +1889,16 @@
         <v>102283.77916666666</v>
       </c>
       <c r="D45">
-        <v>334</v>
-      </c>
-      <c r="E45">
         <v>80</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>32</v>
       </c>
+      <c r="F45">
+        <v>4280</v>
+      </c>
       <c r="G45">
-        <v>4280</v>
+        <v>15</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1916,16 +1915,16 @@
         <v>90594.938888888893</v>
       </c>
       <c r="D46">
-        <v>183</v>
-      </c>
-      <c r="E46">
         <v>65</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>42</v>
       </c>
+      <c r="F46">
+        <v>42741</v>
+      </c>
       <c r="G46">
-        <v>42741</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1942,16 +1941,16 @@
         <v>99285.793749999997</v>
       </c>
       <c r="D47">
-        <v>77</v>
-      </c>
-      <c r="E47">
         <v>81</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
         <v>43</v>
       </c>
+      <c r="F47">
+        <v>4280</v>
+      </c>
       <c r="G47">
-        <v>4280</v>
+        <v>11</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1968,16 +1967,16 @@
         <v>87085.724305555559</v>
       </c>
       <c r="D48">
-        <v>121</v>
-      </c>
-      <c r="E48">
         <v>85</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>20</v>
       </c>
+      <c r="F48">
+        <v>486</v>
+      </c>
       <c r="G48">
-        <v>486</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -1994,16 +1993,16 @@
         <v>87242.755555555559</v>
       </c>
       <c r="D49">
-        <v>121</v>
-      </c>
-      <c r="E49">
         <v>85</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>20</v>
       </c>
+      <c r="F49">
+        <v>486</v>
+      </c>
       <c r="G49">
-        <v>486</v>
+        <v>15</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2020,16 +2019,16 @@
         <v>79476.768750000003</v>
       </c>
       <c r="D50">
-        <v>158</v>
-      </c>
-      <c r="E50">
         <v>59</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
         <v>44</v>
       </c>
+      <c r="F50">
+        <v>5750</v>
+      </c>
       <c r="G50">
-        <v>5750</v>
+        <v>7</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2046,16 +2045,16 @@
         <v>79492.290277777778</v>
       </c>
       <c r="D51">
-        <v>158</v>
-      </c>
-      <c r="E51">
         <v>59</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
         <v>44</v>
       </c>
+      <c r="F51">
+        <v>5750</v>
+      </c>
       <c r="G51">
-        <v>5750</v>
+        <v>7</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2071,17 +2070,17 @@
       <c r="C52" s="1">
         <v>78660.619444444441</v>
       </c>
-      <c r="D52">
-        <v>261</v>
-      </c>
-      <c r="E52" t="e">
+      <c r="D52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" t="s">
         <v>45</v>
       </c>
-      <c r="G52">
+      <c r="F52">
         <v>570</v>
+      </c>
+      <c r="G52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2098,16 +2097,16 @@
         <v>106738.64583333333</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
         <v>133</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" t="s">
         <v>46</v>
       </c>
+      <c r="F53">
+        <v>51884</v>
+      </c>
       <c r="G53">
-        <v>51884</v>
+        <v>15</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2124,16 +2123,16 @@
         <v>106759.87291666666</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
         <v>133</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" t="s">
         <v>46</v>
       </c>
+      <c r="F54">
+        <v>51884</v>
+      </c>
       <c r="G54">
-        <v>51884</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2150,16 +2149,16 @@
         <v>99175.251388888893</v>
       </c>
       <c r="D55">
-        <v>96</v>
-      </c>
-      <c r="E55">
         <v>81</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" t="s">
         <v>45</v>
       </c>
+      <c r="F55">
+        <v>570</v>
+      </c>
       <c r="G55">
-        <v>570</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2176,16 +2175,16 @@
         <v>109023.23194444444</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
         <v>64</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" t="s">
         <v>47</v>
       </c>
+      <c r="F56">
+        <v>80601</v>
+      </c>
       <c r="G56">
-        <v>80601</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2202,16 +2201,16 @@
         <v>95360.684722222228</v>
       </c>
       <c r="D57">
-        <v>314</v>
-      </c>
-      <c r="E57">
         <v>125</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" t="s">
         <v>48</v>
       </c>
+      <c r="F57">
+        <v>56981</v>
+      </c>
       <c r="G57">
-        <v>56981</v>
+        <v>15</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2228,16 +2227,16 @@
         <v>81685.833333333328</v>
       </c>
       <c r="D58">
-        <v>157</v>
-      </c>
-      <c r="E58">
         <v>120</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" t="s">
         <v>49</v>
       </c>
+      <c r="F58">
+        <v>1124</v>
+      </c>
       <c r="G58">
-        <v>1124</v>
+        <v>15</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2254,16 +2253,16 @@
         <v>84042.101388888885</v>
       </c>
       <c r="D59">
-        <v>143</v>
-      </c>
-      <c r="E59">
         <v>94</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" t="s">
         <v>50</v>
       </c>
+      <c r="F59">
+        <v>486</v>
+      </c>
       <c r="G59">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2280,16 +2279,16 @@
         <v>84231.242361111115</v>
       </c>
       <c r="D60">
-        <v>143</v>
-      </c>
-      <c r="E60">
         <v>94</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" t="s">
         <v>50</v>
       </c>
+      <c r="F60">
+        <v>486</v>
+      </c>
       <c r="G60">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2306,16 +2305,16 @@
         <v>98378.969444444447</v>
       </c>
       <c r="D61">
-        <v>115</v>
-      </c>
-      <c r="E61">
         <v>86</v>
       </c>
-      <c r="F61" t="s">
+      <c r="E61" t="s">
         <v>52</v>
       </c>
+      <c r="F61">
+        <v>5761</v>
+      </c>
       <c r="G61">
-        <v>5761</v>
+        <v>4</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2332,16 +2331,16 @@
         <v>93488.680555555562</v>
       </c>
       <c r="D62">
-        <v>148</v>
-      </c>
-      <c r="E62">
         <v>94</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E62" t="s">
         <v>53</v>
       </c>
+      <c r="F62">
+        <v>5990</v>
+      </c>
       <c r="G62">
-        <v>5990</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2358,16 +2357,16 @@
         <v>91902.099305555559</v>
       </c>
       <c r="D63">
-        <v>115</v>
-      </c>
-      <c r="E63">
         <v>80</v>
       </c>
-      <c r="F63" t="s">
+      <c r="E63" t="s">
         <v>54</v>
       </c>
+      <c r="F63">
+        <v>85206</v>
+      </c>
       <c r="G63">
-        <v>85206</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2384,16 +2383,16 @@
         <v>107306.30208333333</v>
       </c>
       <c r="D64">
-        <v>85</v>
-      </c>
-      <c r="E64">
         <v>120</v>
       </c>
-      <c r="F64" t="s">
+      <c r="E64" t="s">
         <v>55</v>
       </c>
+      <c r="F64">
+        <v>71615</v>
+      </c>
       <c r="G64">
-        <v>71615</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2410,16 +2409,16 @@
         <v>96385.773611111115</v>
       </c>
       <c r="D65">
-        <v>130</v>
-      </c>
-      <c r="E65">
         <v>67</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" t="s">
         <v>56</v>
       </c>
+      <c r="F65">
+        <v>1961</v>
+      </c>
       <c r="G65">
-        <v>1961</v>
+        <v>4</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2436,16 +2435,16 @@
         <v>89313.626388888893</v>
       </c>
       <c r="D66">
-        <v>94</v>
-      </c>
-      <c r="E66">
         <v>141</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" t="s">
         <v>57</v>
       </c>
+      <c r="F66">
+        <v>20280</v>
+      </c>
       <c r="G66">
-        <v>20280</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2462,16 +2461,16 @@
         <v>89479.677777777775</v>
       </c>
       <c r="D67">
-        <v>94</v>
-      </c>
-      <c r="E67">
         <v>141</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" t="s">
         <v>57</v>
       </c>
+      <c r="F67">
+        <v>20280</v>
+      </c>
       <c r="G67">
-        <v>20280</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2488,16 +2487,16 @@
         <v>79903.684027777781</v>
       </c>
       <c r="D68">
-        <v>80</v>
-      </c>
-      <c r="E68">
         <v>120</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" t="s">
         <v>51</v>
       </c>
+      <c r="F68">
+        <v>42823</v>
+      </c>
       <c r="G68">
-        <v>42823</v>
+        <v>4</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2514,16 +2513,16 @@
         <v>104648.83263888888</v>
       </c>
       <c r="D69">
-        <v>171</v>
-      </c>
-      <c r="E69">
         <v>78</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" t="s">
         <v>58</v>
       </c>
+      <c r="F69">
+        <v>41071</v>
+      </c>
       <c r="G69">
-        <v>41071</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2540,16 +2539,16 @@
         <v>89409.448611111118</v>
       </c>
       <c r="D70">
-        <v>81</v>
-      </c>
-      <c r="E70">
         <v>76</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E70" t="s">
         <v>59</v>
       </c>
+      <c r="F70">
+        <v>53084</v>
+      </c>
       <c r="G70">
-        <v>53084</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2566,16 +2565,16 @@
         <v>103947.23888888888</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
         <v>87</v>
       </c>
-      <c r="F71" t="s">
-        <v>4</v>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>41001</v>
       </c>
       <c r="G71">
-        <v>41001</v>
+        <v>4</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2592,16 +2591,16 @@
         <v>94920.14444444445</v>
       </c>
       <c r="D72">
-        <v>139</v>
-      </c>
-      <c r="E72">
         <v>107</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E72" t="s">
         <v>60</v>
       </c>
+      <c r="F72">
+        <v>5750</v>
+      </c>
       <c r="G72">
-        <v>5750</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2618,16 +2617,16 @@
         <v>89320.813888888893</v>
       </c>
       <c r="D73">
-        <v>131</v>
-      </c>
-      <c r="E73">
         <v>48</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E73" t="s">
         <v>61</v>
       </c>
+      <c r="F73">
+        <v>388</v>
+      </c>
       <c r="G73">
-        <v>388</v>
+        <v>4</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2644,16 +2643,16 @@
         <v>93205.107638888891</v>
       </c>
       <c r="D74">
-        <v>118</v>
-      </c>
-      <c r="E74">
         <v>120</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" t="s">
         <v>62</v>
       </c>
+      <c r="F74">
+        <v>51881</v>
+      </c>
       <c r="G74">
-        <v>51881</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2670,16 +2669,16 @@
         <v>89674.054861111115</v>
       </c>
       <c r="D75">
-        <v>104</v>
-      </c>
-      <c r="E75">
         <v>84</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
         <v>63</v>
       </c>
+      <c r="F75">
+        <v>51881</v>
+      </c>
       <c r="G75">
-        <v>51881</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2696,16 +2695,16 @@
         <v>89735.369444444441</v>
       </c>
       <c r="D76">
-        <v>104</v>
-      </c>
-      <c r="E76">
         <v>84</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E76" t="s">
         <v>63</v>
       </c>
+      <c r="F76">
+        <v>51881</v>
+      </c>
       <c r="G76">
-        <v>51881</v>
+        <v>4</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2722,16 +2721,16 @@
         <v>89821.759027777778</v>
       </c>
       <c r="D77">
-        <v>108</v>
-      </c>
-      <c r="E77">
         <v>118</v>
       </c>
-      <c r="F77" t="s">
+      <c r="E77" t="s">
         <v>64</v>
       </c>
+      <c r="F77">
+        <v>99731</v>
+      </c>
       <c r="G77">
-        <v>99731</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2748,16 +2747,16 @@
         <v>109146.28750000001</v>
       </c>
       <c r="D78">
-        <v>90</v>
-      </c>
-      <c r="E78">
         <v>72</v>
       </c>
-      <c r="F78" t="s">
+      <c r="E78" t="s">
         <v>51</v>
       </c>
+      <c r="F78">
+        <v>3849</v>
+      </c>
       <c r="G78">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2774,16 +2773,16 @@
         <v>109222.71736111111</v>
       </c>
       <c r="D79">
-        <v>90</v>
-      </c>
-      <c r="E79">
         <v>72</v>
       </c>
-      <c r="F79" t="s">
+      <c r="E79" t="s">
         <v>51</v>
       </c>
+      <c r="F79">
+        <v>3849</v>
+      </c>
       <c r="G79">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2800,16 +2799,16 @@
         <v>109240.93472222223</v>
       </c>
       <c r="D80">
-        <v>90</v>
-      </c>
-      <c r="E80">
         <v>72</v>
       </c>
-      <c r="F80" t="s">
+      <c r="E80" t="s">
         <v>51</v>
       </c>
+      <c r="F80">
+        <v>3849</v>
+      </c>
       <c r="G80">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2826,16 +2825,16 @@
         <v>109650.85555555555</v>
       </c>
       <c r="D81">
-        <v>90</v>
-      </c>
-      <c r="E81">
         <v>72</v>
       </c>
-      <c r="F81" t="s">
+      <c r="E81" t="s">
         <v>51</v>
       </c>
+      <c r="F81">
+        <v>3849</v>
+      </c>
       <c r="G81">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2852,16 +2851,16 @@
         <v>109734.67638888888</v>
       </c>
       <c r="D82">
-        <v>90</v>
-      </c>
-      <c r="E82">
         <v>72</v>
       </c>
-      <c r="F82" t="s">
+      <c r="E82" t="s">
         <v>51</v>
       </c>
+      <c r="F82">
+        <v>3849</v>
+      </c>
       <c r="G82">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2878,16 +2877,16 @@
         <v>109876.86527777778</v>
       </c>
       <c r="D83">
-        <v>90</v>
-      </c>
-      <c r="E83">
         <v>72</v>
       </c>
-      <c r="F83" t="s">
+      <c r="E83" t="s">
         <v>51</v>
       </c>
+      <c r="F83">
+        <v>3849</v>
+      </c>
       <c r="G83">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2904,16 +2903,16 @@
         <v>110071.45069444444</v>
       </c>
       <c r="D84">
-        <v>90</v>
-      </c>
-      <c r="E84">
         <v>72</v>
       </c>
-      <c r="F84" t="s">
+      <c r="E84" t="s">
         <v>51</v>
       </c>
+      <c r="F84">
+        <v>3849</v>
+      </c>
       <c r="G84">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2930,16 +2929,16 @@
         <v>110161.95833333333</v>
       </c>
       <c r="D85">
-        <v>90</v>
-      </c>
-      <c r="E85">
         <v>72</v>
       </c>
-      <c r="F85" t="s">
+      <c r="E85" t="s">
         <v>51</v>
       </c>
+      <c r="F85">
+        <v>3849</v>
+      </c>
       <c r="G85">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -2956,16 +2955,16 @@
         <v>110210.69930555555</v>
       </c>
       <c r="D86">
-        <v>90</v>
-      </c>
-      <c r="E86">
         <v>72</v>
       </c>
-      <c r="F86" t="s">
+      <c r="E86" t="s">
         <v>51</v>
       </c>
+      <c r="F86">
+        <v>3849</v>
+      </c>
       <c r="G86">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2982,16 +2981,16 @@
         <v>110259.95833333333</v>
       </c>
       <c r="D87">
-        <v>90</v>
-      </c>
-      <c r="E87">
         <v>72</v>
       </c>
-      <c r="F87" t="s">
+      <c r="E87" t="s">
         <v>51</v>
       </c>
+      <c r="F87">
+        <v>3849</v>
+      </c>
       <c r="G87">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3008,16 +3007,16 @@
         <v>110304.80486111112</v>
       </c>
       <c r="D88">
-        <v>90</v>
-      </c>
-      <c r="E88">
         <v>72</v>
       </c>
-      <c r="F88" t="s">
+      <c r="E88" t="s">
         <v>51</v>
       </c>
+      <c r="F88">
+        <v>3849</v>
+      </c>
       <c r="G88">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3034,16 +3033,16 @@
         <v>110350.79236111112</v>
       </c>
       <c r="D89">
-        <v>90</v>
-      </c>
-      <c r="E89">
         <v>72</v>
       </c>
-      <c r="F89" t="s">
+      <c r="E89" t="s">
         <v>51</v>
       </c>
+      <c r="F89">
+        <v>3849</v>
+      </c>
       <c r="G89">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3060,16 +3059,16 @@
         <v>110425.91666666667</v>
       </c>
       <c r="D90">
-        <v>90</v>
-      </c>
-      <c r="E90">
         <v>72</v>
       </c>
-      <c r="F90" t="s">
+      <c r="E90" t="s">
         <v>51</v>
       </c>
+      <c r="F90">
+        <v>3849</v>
+      </c>
       <c r="G90">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3086,16 +3085,16 @@
         <v>110563.91388888888</v>
       </c>
       <c r="D91">
-        <v>90</v>
-      </c>
-      <c r="E91">
         <v>72</v>
       </c>
-      <c r="F91" t="s">
+      <c r="E91" t="s">
         <v>51</v>
       </c>
+      <c r="F91">
+        <v>3849</v>
+      </c>
       <c r="G91">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3112,16 +3111,16 @@
         <v>110580.07291666667</v>
       </c>
       <c r="D92">
-        <v>90</v>
-      </c>
-      <c r="E92">
         <v>72</v>
       </c>
-      <c r="F92" t="s">
+      <c r="E92" t="s">
         <v>51</v>
       </c>
+      <c r="F92">
+        <v>3849</v>
+      </c>
       <c r="G92">
-        <v>3849</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3138,16 +3137,16 @@
         <v>91932.711111111115</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
         <v>80</v>
       </c>
-      <c r="F93" t="s">
+      <c r="E93" t="s">
         <v>65</v>
       </c>
+      <c r="F93">
+        <v>80501</v>
+      </c>
       <c r="G93">
-        <v>80501</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3164,16 +3163,16 @@
         <v>84579.717361111107</v>
       </c>
       <c r="D94">
-        <v>117</v>
-      </c>
-      <c r="E94">
         <v>120</v>
       </c>
-      <c r="F94" t="s">
+      <c r="E94" t="s">
         <v>50</v>
       </c>
+      <c r="F94">
+        <v>42821</v>
+      </c>
       <c r="G94">
-        <v>42821</v>
+        <v>4</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -3190,16 +3189,16 @@
         <v>77467.617361111115</v>
       </c>
       <c r="D95">
-        <v>111</v>
-      </c>
-      <c r="E95">
         <v>90</v>
       </c>
-      <c r="F95" t="s">
+      <c r="E95" t="s">
         <v>66</v>
       </c>
+      <c r="F95">
+        <v>51919</v>
+      </c>
       <c r="G95">
-        <v>51919</v>
+        <v>4</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -3216,16 +3215,16 @@
         <v>97199.74791666666</v>
       </c>
       <c r="D96">
-        <v>123</v>
-      </c>
-      <c r="E96">
         <v>120</v>
       </c>
-      <c r="F96" t="s">
+      <c r="E96" t="s">
         <v>67</v>
       </c>
+      <c r="F96">
+        <v>41041</v>
+      </c>
       <c r="G96">
-        <v>41041</v>
+        <v>3</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3242,16 +3241,16 @@
         <v>83115.639583333337</v>
       </c>
       <c r="D97">
-        <v>124</v>
-      </c>
-      <c r="E97">
         <v>110</v>
       </c>
-      <c r="F97" t="s">
+      <c r="E97" t="s">
         <v>15</v>
       </c>
+      <c r="F97">
+        <v>5722</v>
+      </c>
       <c r="G97">
-        <v>5722</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3268,16 +3267,16 @@
         <v>83190.875</v>
       </c>
       <c r="D98">
-        <v>124</v>
-      </c>
-      <c r="E98">
         <v>110</v>
       </c>
-      <c r="F98" t="s">
+      <c r="E98" t="s">
         <v>15</v>
       </c>
+      <c r="F98">
+        <v>5722</v>
+      </c>
       <c r="G98">
-        <v>5722</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -3294,16 +3293,16 @@
         <v>79339.538194444438</v>
       </c>
       <c r="D99">
-        <v>147</v>
-      </c>
-      <c r="E99">
         <v>120</v>
       </c>
-      <c r="F99" t="s">
+      <c r="E99" t="s">
         <v>68</v>
       </c>
+      <c r="F99">
+        <v>41071</v>
+      </c>
       <c r="G99">
-        <v>41071</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3320,16 +3319,16 @@
         <v>74021.302083333328</v>
       </c>
       <c r="D100">
-        <v>107</v>
-      </c>
-      <c r="E100">
         <v>100</v>
       </c>
-      <c r="F100" t="s">
+      <c r="E100" t="s">
         <v>69</v>
       </c>
+      <c r="F100">
+        <v>1890</v>
+      </c>
       <c r="G100">
-        <v>1890</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3346,16 +3345,16 @@
         <v>86130.852777777778</v>
       </c>
       <c r="D101">
-        <v>99</v>
-      </c>
-      <c r="E101">
         <v>71</v>
       </c>
-      <c r="F101" t="s">
+      <c r="E101" t="s">
         <v>50</v>
       </c>
+      <c r="F101">
+        <v>49121</v>
+      </c>
       <c r="G101">
-        <v>49121</v>
+        <v>4</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3372,16 +3371,16 @@
         <v>80279.248611111107</v>
       </c>
       <c r="D102">
-        <v>140</v>
-      </c>
-      <c r="E102">
         <v>85</v>
       </c>
-      <c r="F102" t="s">
+      <c r="E102" t="s">
         <v>70</v>
       </c>
+      <c r="F102">
+        <v>5715</v>
+      </c>
       <c r="G102">
-        <v>5715</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3400,14 +3399,14 @@
       <c r="D103">
         <v>92</v>
       </c>
-      <c r="E103">
-        <v>92</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E103" t="s">
         <v>71</v>
       </c>
+      <c r="F103">
+        <v>8830</v>
+      </c>
       <c r="G103">
-        <v>8830</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3424,16 +3423,16 @@
         <v>95089.590277777781</v>
       </c>
       <c r="D104">
-        <v>103</v>
-      </c>
-      <c r="E104">
         <v>87</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E104" t="s">
         <v>72</v>
       </c>
+      <c r="F104">
+        <v>49322</v>
+      </c>
       <c r="G104">
-        <v>49322</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3450,16 +3449,16 @@
         <v>81061.867361111115</v>
       </c>
       <c r="D105">
-        <v>193</v>
-      </c>
-      <c r="E105">
         <v>78</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E105" t="s">
         <v>15</v>
       </c>
+      <c r="F105">
+        <v>5990</v>
+      </c>
       <c r="G105">
-        <v>5990</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3476,16 +3475,16 @@
         <v>95315.57430555555</v>
       </c>
       <c r="D106">
-        <v>213</v>
-      </c>
-      <c r="E106">
         <v>130</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E106" t="s">
         <v>51</v>
       </c>
+      <c r="F106">
+        <v>5602</v>
+      </c>
       <c r="G106">
-        <v>5602</v>
+        <v>5</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3502,16 +3501,16 @@
         <v>95325.489583333328</v>
       </c>
       <c r="D107">
-        <v>213</v>
-      </c>
-      <c r="E107">
         <v>130</v>
       </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s">
         <v>51</v>
       </c>
+      <c r="F107">
+        <v>5602</v>
+      </c>
       <c r="G107">
-        <v>5602</v>
+        <v>5</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -3528,16 +3527,16 @@
         <v>90492.673611111109</v>
       </c>
       <c r="D108">
-        <v>141</v>
-      </c>
-      <c r="E108">
         <v>120</v>
       </c>
-      <c r="F108" t="s">
+      <c r="E108" t="s">
         <v>73</v>
       </c>
+      <c r="F108">
+        <v>85225</v>
+      </c>
       <c r="G108">
-        <v>85225</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -3554,16 +3553,16 @@
         <v>97144.513194444444</v>
       </c>
       <c r="D109">
-        <v>47</v>
-      </c>
-      <c r="E109">
         <v>64</v>
       </c>
-      <c r="F109" t="s">
+      <c r="E109" t="s">
         <v>74</v>
       </c>
+      <c r="F109">
+        <v>2511</v>
+      </c>
       <c r="G109">
-        <v>2511</v>
+        <v>4</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -3580,16 +3579,16 @@
         <v>88720.888888888891</v>
       </c>
       <c r="D110">
-        <v>273</v>
-      </c>
-      <c r="E110">
         <v>120</v>
       </c>
-      <c r="F110" t="s">
+      <c r="E110" t="s">
         <v>75</v>
       </c>
+      <c r="F110">
+        <v>43411</v>
+      </c>
       <c r="G110">
-        <v>43411</v>
+        <v>4</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -3606,16 +3605,16 @@
         <v>90053.614583333328</v>
       </c>
       <c r="D111">
-        <v>108</v>
-      </c>
-      <c r="E111">
         <v>120</v>
       </c>
-      <c r="F111" t="s">
+      <c r="E111" t="s">
         <v>51</v>
       </c>
+      <c r="F111">
+        <v>4588</v>
+      </c>
       <c r="G111">
-        <v>4588</v>
+        <v>4</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3632,16 +3631,16 @@
         <v>83585.670138888891</v>
       </c>
       <c r="D112">
-        <v>103</v>
-      </c>
-      <c r="E112">
         <v>90</v>
       </c>
-      <c r="F112" t="s">
+      <c r="E112" t="s">
         <v>30</v>
       </c>
+      <c r="F112">
+        <v>5849</v>
+      </c>
       <c r="G112">
-        <v>5849</v>
+        <v>4</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -3658,16 +3657,16 @@
         <v>77065.75208333334</v>
       </c>
       <c r="D113">
-        <v>74</v>
-      </c>
-      <c r="E113">
         <v>100</v>
       </c>
-      <c r="F113" t="s">
+      <c r="E113" t="s">
         <v>76</v>
       </c>
+      <c r="F113">
+        <v>1541</v>
+      </c>
       <c r="G113">
-        <v>1541</v>
+        <v>4</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -3684,16 +3683,16 @@
         <v>102011.55</v>
       </c>
       <c r="D114">
-        <v>111</v>
-      </c>
-      <c r="E114">
         <v>53</v>
       </c>
-      <c r="F114" t="s">
+      <c r="E114" t="s">
         <v>77</v>
       </c>
+      <c r="F114">
+        <v>42843</v>
+      </c>
       <c r="G114">
-        <v>42843</v>
+        <v>4</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3710,16 +3709,16 @@
         <v>100044.91388888888</v>
       </c>
       <c r="D115">
-        <v>155</v>
-      </c>
-      <c r="E115">
         <v>84</v>
       </c>
-      <c r="F115" t="s">
+      <c r="E115" t="s">
         <v>78</v>
       </c>
+      <c r="F115">
+        <v>85221</v>
+      </c>
       <c r="G115">
-        <v>85221</v>
+        <v>4</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -3736,16 +3735,16 @@
         <v>109024.30208333333</v>
       </c>
       <c r="D116">
-        <v>162</v>
-      </c>
-      <c r="E116">
         <v>120</v>
       </c>
-      <c r="F116" t="s">
+      <c r="E116" t="s">
         <v>79</v>
       </c>
+      <c r="F116">
+        <v>1510</v>
+      </c>
       <c r="G116">
-        <v>1510</v>
+        <v>4</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3762,16 +3761,16 @@
         <v>101004.55833333333</v>
       </c>
       <c r="D117">
-        <v>121</v>
-      </c>
-      <c r="E117">
         <v>73</v>
       </c>
-      <c r="F117" t="s">
+      <c r="E117" t="s">
         <v>80</v>
       </c>
+      <c r="F117">
+        <v>41041</v>
+      </c>
       <c r="G117">
-        <v>41041</v>
+        <v>4</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3788,16 +3787,16 @@
         <v>104501.89722222222</v>
       </c>
       <c r="D118">
-        <v>242</v>
-      </c>
-      <c r="E118">
         <v>68</v>
       </c>
-      <c r="F118" t="s">
+      <c r="E118" t="s">
         <v>9</v>
       </c>
+      <c r="F118">
+        <v>43491</v>
+      </c>
       <c r="G118">
-        <v>43491</v>
+        <v>3</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -3814,16 +3813,16 @@
         <v>75483.654861111107</v>
       </c>
       <c r="D119">
-        <v>121</v>
-      </c>
-      <c r="E119">
         <v>103</v>
       </c>
-      <c r="F119" t="s">
+      <c r="E119" t="s">
         <v>81</v>
       </c>
+      <c r="F119">
+        <v>51881</v>
+      </c>
       <c r="G119">
-        <v>51881</v>
+        <v>4</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3840,16 +3839,16 @@
         <v>74778.729861111118</v>
       </c>
       <c r="D120">
-        <v>149</v>
-      </c>
-      <c r="E120">
         <v>120</v>
       </c>
-      <c r="F120" t="s">
+      <c r="E120" t="s">
         <v>82</v>
       </c>
+      <c r="F120">
+        <v>1508</v>
+      </c>
       <c r="G120">
-        <v>1508</v>
+        <v>4</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3866,16 +3865,16 @@
         <v>74808.405555555553</v>
       </c>
       <c r="D121">
-        <v>149</v>
-      </c>
-      <c r="E121">
         <v>120</v>
       </c>
-      <c r="F121" t="s">
+      <c r="E121" t="s">
         <v>82</v>
       </c>
+      <c r="F121">
+        <v>1508</v>
+      </c>
       <c r="G121">
-        <v>1508</v>
+        <v>4</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3892,16 +3891,16 @@
         <v>92325.795138888891</v>
       </c>
       <c r="D122">
-        <v>240</v>
-      </c>
-      <c r="E122">
         <v>96</v>
       </c>
-      <c r="F122" t="s">
+      <c r="E122" t="s">
         <v>83</v>
       </c>
+      <c r="F122">
+        <v>486</v>
+      </c>
       <c r="G122">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -3918,16 +3917,16 @@
         <v>100718.52083333333</v>
       </c>
       <c r="D123">
-        <v>104</v>
-      </c>
-      <c r="E123">
         <v>88</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E123" t="s">
         <v>84</v>
       </c>
+      <c r="F123">
+        <v>41401</v>
+      </c>
       <c r="G123">
-        <v>41401</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3944,16 +3943,16 @@
         <v>77557.333333333328</v>
       </c>
       <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
         <v>82</v>
       </c>
-      <c r="F124" t="s">
+      <c r="E124" t="s">
         <v>79</v>
       </c>
+      <c r="F124">
+        <v>1510</v>
+      </c>
       <c r="G124">
-        <v>1510</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3970,16 +3969,16 @@
         <v>77575.650694444441</v>
       </c>
       <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
         <v>82</v>
       </c>
-      <c r="F125" t="s">
+      <c r="E125" t="s">
         <v>79</v>
       </c>
+      <c r="F125">
+        <v>1510</v>
+      </c>
       <c r="G125">
-        <v>1510</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3996,16 +3995,16 @@
         <v>77581.65625</v>
       </c>
       <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
         <v>82</v>
       </c>
-      <c r="F126" t="s">
+      <c r="E126" t="s">
         <v>79</v>
       </c>
+      <c r="F126">
+        <v>1510</v>
+      </c>
       <c r="G126">
-        <v>1510</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -4022,16 +4021,16 @@
         <v>101673.85347222222</v>
       </c>
       <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
         <v>75</v>
       </c>
-      <c r="F127" t="s">
+      <c r="E127" t="s">
         <v>85</v>
       </c>
+      <c r="F127">
+        <v>389</v>
+      </c>
       <c r="G127">
-        <v>389</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -4048,16 +4047,16 @@
         <v>81778.593055555553</v>
       </c>
       <c r="D128">
-        <v>115</v>
-      </c>
-      <c r="E128">
         <v>100</v>
       </c>
-      <c r="F128" t="s">
+      <c r="E128" t="s">
         <v>86</v>
       </c>
+      <c r="F128">
+        <v>3811</v>
+      </c>
       <c r="G128">
-        <v>3811</v>
+        <v>12</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4074,16 +4073,16 @@
         <v>102470.28819444444</v>
       </c>
       <c r="D129">
-        <v>268</v>
-      </c>
-      <c r="E129">
         <v>35</v>
       </c>
-      <c r="F129" t="s">
+      <c r="E129" t="s">
         <v>87</v>
       </c>
+      <c r="F129">
+        <v>42781</v>
+      </c>
       <c r="G129">
-        <v>42781</v>
+        <v>4</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4100,16 +4099,16 @@
         <v>98966.134722222225</v>
       </c>
       <c r="D130">
-        <v>93</v>
-      </c>
-      <c r="E130">
         <v>149</v>
       </c>
-      <c r="F130" t="s">
+      <c r="E130" t="s">
         <v>88</v>
       </c>
+      <c r="F130">
+        <v>3842</v>
+      </c>
       <c r="G130">
-        <v>3842</v>
+        <v>4</v>
       </c>
       <c r="H130">
         <v>0</v>
